--- a/demo_scripts/IR_demo_data/170627_20C filter/metadata.xlsx
+++ b/demo_scripts/IR_demo_data/170627_20C filter/metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Fiber Photometry data\MS data\170627_20C filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\KLAB_SNU\demo_scripts\IR_demo_data\170627_20C filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>LH GABA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve">Exp name </t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -55,14 +59,6 @@
   </si>
   <si>
     <t>FileName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LH GABA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LH GABA</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -496,32 +492,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,7 +528,7 @@
         <v>456</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>21879</v>
@@ -549,7 +545,7 @@
         <v>464</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>21201</v>
